--- a/vajrang/RoboticEnterpriseFramework_Template/Data/Input/input data states.xlsx
+++ b/vajrang/RoboticEnterpriseFramework_Template/Data/Input/input data states.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranavi\Documents\UiPath\RPA-Developer-in-30-Days\vajrang\RoboticEnterpriseFramework_Template\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108D627-F22E-46CB-9776-2711C8113509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56409655-68F8-49F2-8903-DCCB8BD6E92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{921162F5-BB70-493E-8C77-DBCB99CA71E6}"/>
   </x:bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <x:si>
     <x:t>state</x:t>
   </x:si>
@@ -55,6 +55,9 @@
   </x:si>
   <x:si>
     <x:t>Chittoor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Krishna</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -122,11 +125,12 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -455,52 +459,62 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C3"/>
+  <x:dimension ref="A1:C4"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="Q6" sqref="Q6 Q6:Q6"/>
+      <x:selection activeCell="C2" sqref="C2 C2:C2 C2:C8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="1" width="29" style="4" customWidth="1"/>
-    <x:col min="2" max="2" width="23.332031" style="4" customWidth="1"/>
+    <x:col min="1" max="1" width="29" style="5" customWidth="1"/>
+    <x:col min="2" max="2" width="23.332031" style="5" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <x:c r="A1" s="4" t="s">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="5" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="4" t="s">
+      <x:c r="B1" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="4" t="s">
+      <x:c r="C1" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="5" t="s">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B2" s="6" t="s">
+      <x:c r="B2" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
+      <x:c r="C2" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="5" t="s">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="6" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B3" s="6" t="s">
+      <x:c r="B3" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="C3" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:17"/>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="6" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="5" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
